--- a/medicine/Enfance/Une_souris_verte_(chanson)/Une_souris_verte_(chanson).xlsx
+++ b/medicine/Enfance/Une_souris_verte_(chanson)/Une_souris_verte_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Une souris verte est une chanson enfantine ou comptine française, datant du XVIIIe siècle[1] ou de la fin du XVIIe siècle[2]. Il existe de nombreuses variantes de cette chanson.
+Une souris verte est une chanson enfantine ou comptine française, datant du XVIIIe siècle ou de la fin du XVIIe siècle. Il existe de nombreuses variantes de cette chanson.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Origine incertaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette chanson anonyme, très connue dans toutes les régions de France et dans plusieurs pays francophones (Liban, Tunisie, Haïti, Suisse romande, Belgique et Canada), paraît remonter à la fin  du XVIIe siècle ou au commencement du XVIIIe siècle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette chanson anonyme, très connue dans toutes les régions de France et dans plusieurs pays francophones (Liban, Tunisie, Haïti, Suisse romande, Belgique et Canada), paraît remonter à la fin  du XVIIe siècle ou au commencement du XVIIIe siècle.
 Les origines de cette chanson sont obscures. Les interprétations qui ont été proposés doivent être appréhendées avec une très grande prudence. On a ainsi prétendu que ses paroles absurdes seraient l'allégorie d'une initiation alchimique. Une telle explication est cependant peu probable.
-Une autre hypothèse avancée est que la fameuse « souris verte » ferait référence à un soldat vendéen dont la tenue était parfois verte. Traqué par des soldats républicains pendant la guerre de Vendée (l'herbe pouvant faire référence aux embuscades de le bocages vendéen), il aurait été capturé, exposé puis torturé à mort (l'huile et l'eau feraient référence aux supplices de l'huile bouillante et de la noyade)[3], l'escargot pouvant enfin être une comparaison avec une position de recroquevillement suite aux supplices. Cette hypothèse est elle aussi très sujette à caution. Elle ne s'est répandue dans les médias (et notamment sur Internet) qu'à partir des années 2010. Les sites qui la soutiennent sur Internet se copient tous les uns les autres, sans jamais citer des folkloristes ou des historiens de la chanson française à l'appui de leurs affirmations. En outre, aucun ouvrage spécialisé n'a cité Une Souris verte parmi les nombreuses chansons engendrées par la Révolution française.
+Une autre hypothèse avancée est que la fameuse « souris verte » ferait référence à un soldat vendéen dont la tenue était parfois verte. Traqué par des soldats républicains pendant la guerre de Vendée (l'herbe pouvant faire référence aux embuscades de le bocages vendéen), il aurait été capturé, exposé puis torturé à mort (l'huile et l'eau feraient référence aux supplices de l'huile bouillante et de la noyade), l'escargot pouvant enfin être une comparaison avec une position de recroquevillement suite aux supplices. Cette hypothèse est elle aussi très sujette à caution. Elle ne s'est répandue dans les médias (et notamment sur Internet) qu'à partir des années 2010. Les sites qui la soutiennent sur Internet se copient tous les uns les autres, sans jamais citer des folkloristes ou des historiens de la chanson française à l'appui de leurs affirmations. En outre, aucun ouvrage spécialisé n'a cité Une Souris verte parmi les nombreuses chansons engendrées par la Révolution française.
 Une version non documentée ferait référence à la chasse aux sorcières que l'on menait au bûcher. La souris serait une femme, accusée de sorcellerie et essayant d'échapper à ses bourreaux. On la jugerait alors coupable (je la montre à ces messieurs) et l'enduirait d'huile et d'eau avant de la mener au bûcher.
 </t>
         </is>
@@ -548,7 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première partie
+          <t>Première partie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Une souris verte
 Qui courait dans l'herbe
 Je l’attrape par la queue,
@@ -558,36 +578,152 @@
 Trempez-la dans l’eau,
 Ça fera un escargot
 Tout chaud
-Variantes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Une_souris_verte_(chanson)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_souris_verte_(chanson)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Paroles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Première partie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 À la place de « Une souris verte » :
-Une souris blanche[4]
-Une poule verte[4]
+Une souris blanche
+Une poule verte
 À la place de « Une souris verte »–« Qui courait dans l'herbe » :
-J’ai une poule rouge  Qui vient de Toulouse[4]
+J’ai une poule rouge  Qui vient de Toulouse
 À la place de « Je la montre à ces messieurs »–« Tout chaud » :
-Je la donne à ce monsieur  Ce monsieur ne la veut pas  Je la garde pour moi[4]
+Je la donne à ce monsieur  Ce monsieur ne la veut pas  Je la garde pour moi
 Entre « Ces messieurs me disent » et « Trempez-la dans l’huile » :
-Où l’avez vous prise ?[5]
+Où l’avez vous prise ?
 À la place de « Ça fera un escargot » :
 Ça fera un artichaut[réf. souhaitée]
-Elle deviendra un escargot[4]
-Ça deviendra un escargot[4]
-Il en sortira un crapaud[5]
+Elle deviendra un escargot
+Ça deviendra un escargot
+Il en sortira un crapaud
 À la place de « Tout chaud » :
-Tout bouillant, tout chaud[5]
+Tout bouillant, tout chaud
 Après « Tout chaud » :
-La cuillère à pot[6]
-Dans la rue Boichot  Numéro zéro[6],[5]
-Dans la rue Carnot  Numéro zéro[4]
-De Monsieur Pierrot[4]
-Deuxième partie
+La cuillère à pot
+Dans la rue Boichot  Numéro zéro,
+Dans la rue Carnot  Numéro zéro
+De Monsieur Pierrot
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Une_souris_verte_(chanson)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_souris_verte_(chanson)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Paroles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième partie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Je la mets dans un tiroir,
 Elle me dit qu'il fait trop noir
 Je la mets dans mon chapeau,
 Elle me dit qu'il fait trop chaud
 Je la mets dans ma culotte,
 Elle me fait trois petites crottes
-Variantes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Une_souris_verte_(chanson)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_souris_verte_(chanson)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Paroles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Deuxième partie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 En remplacement de certains vers ou en rajout :
 Je la mets dans ma chemise,  Elle me fait trois petites bises[réf. souhaitée]
 Je l’envoie dans son école,  Elle me dit : j’en ai ras l’bol[réf. souhaitée]
@@ -599,46 +735,48 @@
 Je la mets dans mon jardin,  Elle me dit qu'elle s’y sent bien[réf. souhaitée]
 Je la mets là dans ma main,  Elle me dit qu'elle est très bien [réf. souhaitée]
 Je la mets dans ma cuisine,  Elle me mange toute la farine [réf. souhaitée]
-Je la mets dans mon placard,  Elle me mange tout mon lard[4]
-Je la mets dans mon jupon,  Elle me fait trois petits cochons[4]
+Je la mets dans mon placard,  Elle me mange tout mon lard
+Je la mets dans mon jupon,  Elle me fait trois petits cochons
 À la place de « Elle me fait trois petites crottes » :
-Elle me fait crotte crotte[4]
-Elle me mange ma carotte[4]
+Elle me fait crotte crotte
+Elle me mange ma carotte
 Après le dernier vers :
 Oh ! La coquine ![réf. souhaitée]
 En remplacement :
-Quelle est sa marraine ?  C’est une sauterelle  Quel est son parrain ?  C’est un vieux lapin[4]
+Quelle est sa marraine ?  C’est une sauterelle  Quel est son parrain ?  C’est un vieux lapin
 Ajouté à la fin quand utilisée comme comptine:
-Un, deux, trois,  C’est toi ![7]
+Un, deux, trois,  C’est toi !
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Une_souris_verte_(chanson)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Une_souris_verte_(chanson)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Mélodie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La lecture audio n'est pas prise en charge dans votre navigateur. Vous pouvez télécharger le fichier audio.
 </t>
